--- a/IO_M1_new/Reprod_RunControl_M1_new.xlsx
+++ b/IO_M1_new/Reprod_RunControl_M1_new.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOC" sheetId="1" r:id="rId1"/>
+    <sheet name="TOC" sheetId="13" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="RunControl" sheetId="3" r:id="rId3"/>
     <sheet name="Returns" sheetId="6" r:id="rId4"/>
@@ -21,10 +21,9 @@
     <sheet name="DropDowns" sheetId="5" r:id="rId7"/>
     <sheet name="RunList_M1" sheetId="10" r:id="rId8"/>
     <sheet name="RunList_M2.1" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="360">
   <si>
     <t>Sheet #</t>
   </si>
@@ -557,18 +556,6 @@
   </si>
   <si>
     <t>underfundedTeachers</t>
-  </si>
-  <si>
-    <t>Rf</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>NomReturn</t>
-  </si>
-  <si>
-    <t>sd</t>
   </si>
   <si>
     <t>cd</t>
@@ -1131,11 +1118,41 @@
   <si>
     <t>save.indiv</t>
   </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Contributions</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>GlobalParams</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RunList_M1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>RunList_M2.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1307,7 +1324,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1387,6 +1404,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1823,180 +1842,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BD684D-FD73-48E6-9A46-C44663F3BC62}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625"/>
-    <col min="2" max="2" width="16.75"/>
-    <col min="3" max="1025" width="8.625"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="44" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{7F401AE5-68FE-4FDD-85A7-31FEDA5ECF44}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{D692624F-1F9C-4024-BF3D-B4D8FD8ABE93}"/>
+    <hyperlink ref="B4" location="'Returns'!A1" display="Returns" xr:uid="{F6502CD6-D876-44D3-B460-3178FC80C67E}"/>
+    <hyperlink ref="B5" location="'Contributions'!A1" display="Contributions" xr:uid="{F0C81820-B430-4D3C-9688-8603E11F677D}"/>
+    <hyperlink ref="B6" location="'GlobalParams'!A1" display="GlobalParams" xr:uid="{60434806-9344-46FE-9F03-610905E33C0F}"/>
+    <hyperlink ref="B7" location="'DropDowns'!A1" display="DropDowns" xr:uid="{7CA4F1AA-C67A-4AD5-989B-2E7DCEAB08CE}"/>
+    <hyperlink ref="B8" location="'RunList_M1'!A1" display="RunList_M1" xr:uid="{EBAAAF12-D86E-4321-A921-C547BEFDA20E}"/>
+    <hyperlink ref="B9" location="'RunList_M2.1'!A1" display="RunList_M2.1" xr:uid="{7422235F-3B31-4BF8-9DD9-73DCE3624A4A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>0.105</v>
-      </c>
-      <c r="B6" s="24">
-        <f t="shared" ref="B6:B7" si="0">(A6-$B$2)/$B$3</f>
-        <v>0.19499999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>0.09</v>
-      </c>
-      <c r="B7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B8" s="24">
-        <f>(A8-$B$2)/$B$3</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>0.06</v>
-      </c>
-      <c r="B9" s="24">
-        <f t="shared" ref="B9:B10" si="1">(A9-$B$2)/$B$3</f>
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="B10" s="24">
-        <f t="shared" si="1"/>
-        <v>4.4999999999999991E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <f>0.075 - 0.4*0.12</f>
-        <v>2.6999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>335869.7 - 310296</f>
-        <v>25573.700000000012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f xml:space="preserve"> (310296 + 2140.9)*1.075</f>
-        <v>335869.66750000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <f>(355318.4 - 30244)*1.075</f>
-        <v>349454.98000000004</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2005,7 +1955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2085,45 +2035,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="37.75" customWidth="1"/>
-    <col min="3" max="4" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="24.375"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="21" width="9.25" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
     <col min="22" max="22" width="16"/>
-    <col min="23" max="24" width="12.75"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="29" width="12.75"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="12.75" style="24"/>
-    <col min="32" max="35" width="12.75"/>
-    <col min="36" max="36" width="12.75" customWidth="1"/>
-    <col min="37" max="37" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="11.75" customWidth="1"/>
-    <col min="44" max="44" width="13.125" customWidth="1"/>
-    <col min="45" max="48" width="12.75"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
     <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.625"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -2177,7 +2127,7 @@
         <v>31</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>32</v>
@@ -2189,10 +2139,10 @@
         <v>34</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>35</v>
@@ -2233,7 +2183,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -2287,62 +2237,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44" t="s">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="43" t="s">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2350,17 +2300,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AP4" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -2376,7 +2326,7 @@
         <v>73</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>74</v>
@@ -2385,10 +2335,10 @@
         <v>75</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>76</v>
@@ -2397,7 +2347,7 @@
         <v>77</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>78</v>
@@ -2406,7 +2356,7 @@
         <v>79</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>80</v>
@@ -2427,7 +2377,7 @@
         <v>85</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>86</v>
@@ -2439,10 +2389,10 @@
         <v>88</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>89</v>
@@ -2522,7 +2472,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2553,10 +2503,10 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>0</v>
@@ -2565,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -2583,16 +2533,16 @@
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L7" t="s">
         <v>167</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O7" s="26">
         <v>0</v>
@@ -2655,7 +2605,7 @@
         <v>158</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2708,22 +2658,22 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C8" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -2738,16 +2688,16 @@
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L8" t="s">
         <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O8" s="26">
         <v>0</v>
@@ -2810,7 +2760,7 @@
         <v>158</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -2863,22 +2813,22 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C9" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -2893,16 +2843,16 @@
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L9" t="s">
         <v>167</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O9" s="26">
         <v>0</v>
@@ -2965,7 +2915,7 @@
         <v>158</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ9">
         <v>15</v>
@@ -3018,22 +2968,22 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C10" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -3048,16 +2998,16 @@
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
         <v>167</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O10" s="26">
         <v>0</v>
@@ -3120,7 +3070,7 @@
         <v>158</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ10">
         <v>15</v>
@@ -3173,22 +3123,22 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C11" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -3203,16 +3153,16 @@
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L11" t="s">
         <v>167</v>
       </c>
       <c r="M11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O11" s="26">
         <v>0</v>
@@ -3275,7 +3225,7 @@
         <v>158</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ11">
         <v>30</v>
@@ -3328,22 +3278,22 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C12" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -3358,16 +3308,16 @@
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L12" t="s">
         <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O12" s="26">
         <v>0</v>
@@ -3430,7 +3380,7 @@
         <v>158</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ12">
         <v>30</v>
@@ -3483,22 +3433,22 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -3513,16 +3463,16 @@
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" t="s">
         <v>167</v>
       </c>
       <c r="M13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O13" s="26">
         <v>0</v>
@@ -3582,10 +3532,10 @@
         <v>112</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ13">
         <v>10</v>
@@ -3638,10 +3588,10 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C14" s="11" t="b">
         <v>0</v>
@@ -3650,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -3668,16 +3618,16 @@
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L14" t="s">
         <v>167</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O14" s="26">
         <v>0</v>
@@ -3737,10 +3687,10 @@
         <v>112</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ14">
         <v>15</v>
@@ -3793,10 +3743,10 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
@@ -3805,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -3823,16 +3773,16 @@
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
         <v>167</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O15" s="26">
         <v>0</v>
@@ -3892,10 +3842,10 @@
         <v>112</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ15">
         <v>15</v>
@@ -3948,10 +3898,10 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C16" s="11" t="b">
         <v>0</v>
@@ -3960,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -3978,16 +3928,16 @@
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s">
         <v>167</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O16" s="26">
         <v>0</v>
@@ -4047,10 +3997,10 @@
         <v>112</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ16">
         <v>30</v>
@@ -4103,22 +4053,22 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C17" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G17">
         <v>1000</v>
@@ -4133,16 +4083,16 @@
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
         <v>167</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O17" s="26">
         <v>0</v>
@@ -4202,10 +4152,10 @@
         <v>112</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ17">
         <v>30</v>
@@ -4287,10 +4237,10 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -4299,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G19">
         <v>1000</v>
@@ -4317,16 +4267,16 @@
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
         <v>167</v>
       </c>
       <c r="M19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O19" s="26">
         <v>0</v>
@@ -4389,7 +4339,7 @@
         <v>158</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -4442,10 +4392,10 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C20" s="11" t="b">
         <v>0</v>
@@ -4454,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G20">
         <v>1000</v>
@@ -4472,16 +4422,16 @@
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
         <v>167</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O20" s="26">
         <v>0</v>
@@ -4544,7 +4494,7 @@
         <v>158</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ20">
         <v>1</v>
@@ -4597,10 +4547,10 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C21" s="11" t="b">
         <v>1</v>
@@ -4609,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G21">
         <v>1000</v>
@@ -4627,16 +4577,16 @@
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
         <v>167</v>
       </c>
       <c r="M21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O21" s="26">
         <v>0</v>
@@ -4699,7 +4649,7 @@
         <v>158</v>
       </c>
       <c r="AI21" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ21">
         <v>30</v>
@@ -4752,10 +4702,10 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C22" s="11" t="b">
         <v>0</v>
@@ -4764,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G22">
         <v>1000</v>
@@ -4782,16 +4732,16 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
         <v>167</v>
       </c>
       <c r="M22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O22" s="26">
         <v>0</v>
@@ -4854,7 +4804,7 @@
         <v>158</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ22">
         <v>30</v>
@@ -4907,22 +4857,22 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C23" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -4937,16 +4887,16 @@
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
         <v>167</v>
       </c>
       <c r="M23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O23" s="26">
         <v>0</v>
@@ -5006,10 +4956,10 @@
         <v>112</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ23">
         <v>30</v>
@@ -5062,22 +5012,22 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C24" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G24">
         <v>1000</v>
@@ -5092,16 +5042,16 @@
         <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
         <v>167</v>
       </c>
       <c r="M24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O24" s="26">
         <v>0</v>
@@ -5161,10 +5111,10 @@
         <v>112</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ24">
         <v>30</v>
@@ -5217,10 +5167,10 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C25" s="11" t="b">
         <v>0</v>
@@ -5229,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G25">
         <v>1000</v>
@@ -5247,16 +5197,16 @@
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
         <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O25" s="26">
         <v>0</v>
@@ -5319,7 +5269,7 @@
         <v>158</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ25">
         <v>30</v>
@@ -5400,22 +5350,22 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C27" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -5430,16 +5380,16 @@
         <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
         <v>167</v>
       </c>
       <c r="M27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O27" s="26">
         <v>0</v>
@@ -5502,7 +5452,7 @@
         <v>158</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ27">
         <v>15</v>
@@ -5556,10 +5506,10 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
@@ -5568,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -5586,16 +5536,16 @@
         <v>109</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s">
         <v>167</v>
       </c>
       <c r="M28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O28" s="26">
         <v>0</v>
@@ -5658,7 +5608,7 @@
         <v>158</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ28">
         <v>15</v>
@@ -5712,10 +5662,10 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C29" s="11" t="b">
         <v>0</v>
@@ -5724,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -5742,16 +5692,16 @@
         <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L29" t="s">
         <v>167</v>
       </c>
       <c r="M29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O29" s="26">
         <v>0</v>
@@ -5814,7 +5764,7 @@
         <v>158</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ29">
         <v>15</v>
@@ -5868,10 +5818,10 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C30" s="11" t="b">
         <v>0</v>
@@ -5880,10 +5830,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G30">
         <v>1000</v>
@@ -5898,16 +5848,16 @@
         <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s">
         <v>167</v>
       </c>
       <c r="M30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O30" s="26">
         <v>0</v>
@@ -5970,7 +5920,7 @@
         <v>158</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ30">
         <v>15</v>
@@ -6024,10 +5974,10 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -6036,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G31">
         <v>1000</v>
@@ -6054,16 +6004,16 @@
         <v>109</v>
       </c>
       <c r="K31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s">
         <v>167</v>
       </c>
       <c r="M31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O31" s="26">
         <v>0</v>
@@ -6126,7 +6076,7 @@
         <v>158</v>
       </c>
       <c r="AI31" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ31">
         <v>15</v>
@@ -6180,10 +6130,10 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C32" s="11" t="b">
         <v>0</v>
@@ -6192,10 +6142,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G32">
         <v>1000</v>
@@ -6210,16 +6160,16 @@
         <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s">
         <v>167</v>
       </c>
       <c r="M32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O32" s="26">
         <v>0</v>
@@ -6282,7 +6232,7 @@
         <v>158</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ32">
         <v>15</v>
@@ -6366,22 +6316,22 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G34">
         <v>1000</v>
@@ -6396,16 +6346,16 @@
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s">
         <v>167</v>
       </c>
       <c r="M34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O34" s="26">
         <v>0</v>
@@ -6468,7 +6418,7 @@
         <v>158</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ34">
         <v>30</v>
@@ -6521,22 +6471,22 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G35">
         <v>1000</v>
@@ -6551,16 +6501,16 @@
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s">
         <v>167</v>
       </c>
       <c r="M35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O35" s="26">
         <v>0</v>
@@ -6623,7 +6573,7 @@
         <v>158</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ35">
         <v>15</v>
@@ -6677,22 +6627,22 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C36" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G36">
         <v>1000</v>
@@ -6707,16 +6657,16 @@
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s">
         <v>167</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O36" s="26">
         <v>0</v>
@@ -6779,7 +6729,7 @@
         <v>158</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ36">
         <v>15</v>
@@ -6861,7 +6811,7 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -6892,10 +6842,10 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -6904,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G39">
         <v>1000</v>
@@ -6922,16 +6872,16 @@
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s">
         <v>167</v>
       </c>
       <c r="M39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O39" s="26">
         <v>0</v>
@@ -6979,7 +6929,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD39" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE39" s="41">
         <v>8.2199999999999995E-2</v>
@@ -6994,7 +6944,7 @@
         <v>158</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AJ39">
         <v>1</v>
@@ -7047,22 +6997,22 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C40" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G40">
         <v>1000</v>
@@ -7077,16 +7027,16 @@
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L40" t="s">
         <v>167</v>
       </c>
       <c r="M40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O40" s="26">
         <v>0</v>
@@ -7134,7 +7084,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD40" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE40" s="41">
         <v>8.2199999999999995E-2</v>
@@ -7149,7 +7099,7 @@
         <v>158</v>
       </c>
       <c r="AI40" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ40">
         <v>30</v>
@@ -7202,22 +7152,22 @@
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C41" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G41">
         <v>1000</v>
@@ -7232,16 +7182,16 @@
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s">
         <v>167</v>
       </c>
       <c r="M41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O41" s="26">
         <v>0</v>
@@ -7289,7 +7239,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD41" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE41" s="41">
         <v>8.2199999999999995E-2</v>
@@ -7304,7 +7254,7 @@
         <v>158</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ41">
         <v>30</v>
@@ -7357,22 +7307,22 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C42" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G42">
         <v>1000</v>
@@ -7387,16 +7337,16 @@
         <v>109</v>
       </c>
       <c r="K42" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s">
         <v>167</v>
       </c>
       <c r="M42" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O42" s="26">
         <v>0</v>
@@ -7444,7 +7394,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD42" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE42" s="41">
         <v>8.2199999999999995E-2</v>
@@ -7459,7 +7409,7 @@
         <v>158</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ42">
         <v>30</v>
@@ -7512,10 +7462,10 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -7524,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G43">
         <v>1000</v>
@@ -7542,16 +7492,16 @@
         <v>109</v>
       </c>
       <c r="K43" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s">
         <v>167</v>
       </c>
       <c r="M43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O43" s="26">
         <v>0</v>
@@ -7599,7 +7549,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD43" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AE43" s="41">
         <v>8.2199999999999995E-2</v>
@@ -7614,7 +7564,7 @@
         <v>158</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ43">
         <v>30</v>
@@ -7696,7 +7646,7 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -7727,22 +7677,22 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C46" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G46">
         <v>1000</v>
@@ -7757,16 +7707,16 @@
         <v>109</v>
       </c>
       <c r="K46" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s">
         <v>167</v>
       </c>
       <c r="M46" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N46" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O46" s="26">
         <v>0</v>
@@ -7829,7 +7779,7 @@
         <v>158</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ46">
         <v>30</v>
@@ -7882,22 +7832,22 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C47" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G47">
         <v>1000</v>
@@ -7912,16 +7862,16 @@
         <v>109</v>
       </c>
       <c r="K47" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s">
         <v>167</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N47" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O47" s="26">
         <v>0</v>
@@ -7984,7 +7934,7 @@
         <v>158</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ47">
         <v>30</v>
@@ -8050,82 +8000,82 @@
     <mergeCell ref="AD4:AF4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN47" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI47" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH47" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS47" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P47 C6:D47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P47 C6:D47" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB47 V6:V47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB47 V6:V47" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X47" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA47 AC6:AC47 AE6:AE47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA47 AC6:AC47 AE6:AE47" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ47" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU47" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV47" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF47" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL47" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM47">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM47" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO47">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO47" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD47"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY47">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD47" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY47" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP47" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ47" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S47" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J47" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8134,37 +8084,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -8177,7 +8127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8186,7 +8136,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8205,7 +8155,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B4" s="26">
         <v>-0.25</v>
@@ -8219,7 +8169,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B5" s="26">
         <v>8.2199999999999995E-2</v>
@@ -8233,7 +8183,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B6" s="26">
         <v>-0.25</v>
@@ -8247,7 +8197,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B7" s="26">
         <v>8.2199999999999995E-2</v>
@@ -8261,7 +8211,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B8" s="26">
         <v>-0.25</v>
@@ -8275,7 +8225,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B9" s="26">
         <v>8.2199999999999995E-2</v>
@@ -8289,7 +8239,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B10" s="26">
         <v>-0.25</v>
@@ -8303,7 +8253,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B11" s="26">
         <v>8.2199999999999995E-2</v>
@@ -8317,7 +8267,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B12" s="26">
         <v>-0.25</v>
@@ -8331,7 +8281,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B13" s="26">
         <v>8.2199999999999995E-2</v>
@@ -8345,11 +8295,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>-1</formula1>
       <formula2>0.5</formula2>
     </dataValidation>
@@ -8359,7 +8309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8403,7 +8353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8412,7 +8362,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8473,7 +8423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -8482,10 +8432,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375"/>
+    <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.375"/>
-    <col min="4" max="1025" width="8.625"/>
+    <col min="3" max="3" width="85.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8592,27 +8542,27 @@
     </row>
     <row r="20" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -8632,42 +8582,42 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8713,42 +8663,42 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -8800,12 +8750,12 @@
     </row>
     <row r="64" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
         <v>151</v>
@@ -8813,17 +8763,17 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,41 +8793,41 @@
     </row>
     <row r="73" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8885,41 +8835,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8927,174 +8877,174 @@
         <v>71</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D8" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D9" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D11" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D12" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D15" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D16" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D17" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D18" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9104,91 +9054,91 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D20" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D21" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D22" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D23" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D24" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D25" s="33"/>
     </row>
@@ -9199,68 +9149,68 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D27" s="33">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D28" s="33">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D29" s="33">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D30" s="33">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9269,108 +9219,108 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D32" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D33" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B34" s="34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D34" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B35" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D35" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B36" s="34" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D36" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D37" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D38" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:44" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D39" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K39" s="26"/>
       <c r="L39" s="18"/>
@@ -9397,19 +9347,19 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D40" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K40" s="26"/>
       <c r="L40" s="18"/>
@@ -9436,78 +9386,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -9516,13 +9466,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -9535,7 +9485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9544,31 +9494,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="72.25" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
@@ -25962,10 +25912,10 @@
         <v>71</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>3</v>
@@ -25973,133 +25923,133 @@
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
         <v>287</v>
       </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
       <c r="C9" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>297</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -26118,16 +26068,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>109</v>
@@ -26136,10 +26086,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>109</v>
@@ -26148,10 +26098,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>109</v>
@@ -26159,10 +26109,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>109</v>
@@ -26170,10 +26120,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>109</v>
@@ -26185,13 +26135,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>109</v>
@@ -26199,10 +26149,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>109</v>
@@ -26210,10 +26160,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>109</v>
@@ -26221,10 +26171,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>109</v>
@@ -26232,10 +26182,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>109</v>
@@ -26247,16 +26197,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>109</v>
@@ -26264,10 +26214,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="34" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>109</v>
@@ -26275,7 +26225,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">

--- a/IO_M1_new/Reprod_RunControl_M1_new.xlsx
+++ b/IO_M1_new/Reprod_RunControl_M1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="13" r:id="rId1"/>
@@ -1406,7 +1406,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,16 +1418,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -2237,62 +2237,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="46" t="s">
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="46" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="48" t="s">
+      <c r="AH4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2300,17 +2300,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="45" t="s">
+      <c r="AP4" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="49" t="s">
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -7987,17 +7987,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN47" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -8356,8 +8356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
